--- a/metrics/API_providers/octoAI_llama31_8b.xlsx
+++ b/metrics/API_providers/octoAI_llama31_8b.xlsx
@@ -452,197 +452,197 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38.59584071159324</v>
       </c>
       <c r="C2" t="n">
-        <v>6.320806980133057</v>
+        <v>2.995727777481079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>48.77383572338238</v>
+        <v>30.69948105974027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8616960048675537</v>
+        <v>0.6431510448455811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>43.57125995127315</v>
+        <v>50.61783457645388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3665657043457031</v>
+        <v>2.214986562728882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>45.75147868178293</v>
+        <v>59.52630995293412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9419238567352295</v>
+        <v>5.583105802536011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>51.26236167607713</v>
+        <v>60.51468508650787</v>
       </c>
       <c r="C6" t="n">
-        <v>2.772765398025513</v>
+        <v>0.5195913314819336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>53.92131756038156</v>
+        <v>63.14257011860828</v>
       </c>
       <c r="C7" t="n">
-        <v>4.179523944854736</v>
+        <v>0.7684435844421387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>46.22745325635053</v>
+        <v>54.14263499454754</v>
       </c>
       <c r="C8" t="n">
-        <v>4.474996328353882</v>
+        <v>5.603425264358521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>40.44056448751404</v>
+        <v>47.36317480817629</v>
       </c>
       <c r="C9" t="n">
-        <v>1.780125379562378</v>
+        <v>5.068266153335571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>35.9481701875136</v>
+        <v>42.11815020804853</v>
       </c>
       <c r="C10" t="n">
-        <v>4.555444002151489</v>
+        <v>5.820058345794678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>32.35069423784606</v>
+        <v>37.90359057954642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1008439064025879</v>
+        <v>0.1024105548858643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>29.41259752744372</v>
+        <v>34.46053960954006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6049211025238037</v>
+        <v>0.3114306926727295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>27.35694559941762</v>
+        <v>31.58869697656097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0988919734954834</v>
+        <v>0.09872746467590332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>30.18126708641041</v>
+        <v>34.81597137634862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1017608642578125</v>
+        <v>0.09994649887084961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>33.26686680149659</v>
+        <v>36.22929120807364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1023058891296387</v>
+        <v>0.1012868881225586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>36.13219055741765</v>
+        <v>36.24404191248592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1009845733642578</v>
+        <v>0.09957337379455566</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>37.94291963652473</v>
+        <v>40.77531483428366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1015148162841797</v>
+        <v>0.1005270481109619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>40.76488286982469</v>
+        <v>38.37502852012332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1018328666687012</v>
+        <v>0.1002094745635986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>38.4943965762432</v>
+        <v>42.85532841322346</v>
       </c>
       <c r="C19" t="n">
         <v>0.1018011569976807</v>
@@ -650,24 +650,24 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>36.47048569499754</v>
+        <v>40.60194033548805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09987854957580566</v>
+        <v>0.1016035079956055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>34.64742015639059</v>
+        <v>38.57018407545384</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1016321182250977</v>
+        <v>0.09529972076416016</v>
       </c>
     </row>
   </sheetData>
